--- a/Sample/Documentation/管理用資料/サービス管理台帳_公開リポジトリで埋めてみた.xlsx
+++ b/Sample/Documentation/管理用資料/サービス管理台帳_公開リポジトリで埋めてみた.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\BackBaseProxy\Sample\Documentation\管理用資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5755478-1050-4861-8161-00C0DBBCD41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14724993-9068-4CA5-BA76-4AA69DF50293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16170" yWindow="2130" windowWidth="18750" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12015" yWindow="795" windowWidth="18750" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>サービス名</t>
     <rPh sb="4" eb="5">
@@ -473,6 +473,359 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定している担当工程</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>タントウコウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義-結合試験</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ケツゴウシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義-詳細設計</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ショウサイセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本設計-単体試験(要件定義は各部署から来ることを想定)</t>
+    <rPh sb="0" eb="4">
+      <t>キホンセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>タンタイシケン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カクブショ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義-プログラム設計-総合テスト
+（単体のスタンドアプリケーション事例を想定)</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体試験-総合試験</t>
+    <rPh sb="0" eb="4">
+      <t>タンタイシケン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ソウゴウシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計-単体試験(サーバーサイド側のサンプルにこだわった範囲)</t>
+    <rPh sb="0" eb="4">
+      <t>ショウサイセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーサイド基盤部門</t>
+    <rPh sb="7" eb="9">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーサイド基盤部門</t>
+    <rPh sb="7" eb="11">
+      <t>キバンブモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再翻訳してのリプレースサンプルリポジトリ</t>
+    <rPh sb="0" eb="3">
+      <t>サイホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sakuriver/DocumentManagement</t>
+  </si>
+  <si>
+    <t>各種業務系のサンプル資料からの翻訳作成</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ギョウムケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNSでの定期報告及びGoogleDriveでの成果物アップロード</t>
+    <rPh sb="5" eb="9">
+      <t>テイキホウコク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>github,sns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sakuriver/featuremap</t>
+  </si>
+  <si>
+    <t>最新フレームワーク及びPoC結果共有用サイト</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PoC開発部門</t>
+    <rPh sb="3" eb="7">
+      <t>カイハツブモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未来地図サイト</t>
+    <rPh sb="0" eb="4">
+      <t>ミライチズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術から、未来のロボットや実験をするサイトです。</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構想定義-単体試験</t>
+    <rPh sb="0" eb="4">
+      <t>コウソウテイギ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>タンタイシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://featuremap.bakufu.org/#vlog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scratch及びmicrobit検証リポジトリ</t>
+    <rPh sb="7" eb="8">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minecraftや、microbit共通で実装する関連のリポジトリ</t>
+    <rPh sb="19" eb="21">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sakuriver/fukkuchallenge</t>
+  </si>
+  <si>
+    <t>ggjで開発した時のリポジトリです。Enchantjsで開発しました。</t>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sakuriver/ggj2019game</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ggjサイトでの提出で完了</t>
+    <rPh sb="8" eb="10">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ggj2019開発作品管理URL</t>
+    <rPh sb="7" eb="11">
+      <t>カイハツサクヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpラーニング案件管理URL</t>
+    <rPh sb="8" eb="10">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fuelphpのサーバーサイドラーニング用に作成したリポジトリです。</t>
+    <rPh sb="20" eb="21">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sakuriver/FuelPhpGate</t>
+  </si>
+  <si>
+    <t>微量の運営中(phpリプレースとバージョンアップは残っているため)</t>
+    <rPh sb="0" eb="2">
+      <t>ビリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ウンエイチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sakuriver/virtualcity-webmock</t>
+  </si>
+  <si>
+    <t>仮想都市関連</t>
+    <rPh sb="0" eb="6">
+      <t>カソウトシカンレン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -653,7 +1006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -668,7 +1021,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -690,6 +1043,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -971,31 +1328,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:U13"/>
+  <dimension ref="C2:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="78.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="63" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" ht="19.5" thickBot="1"/>
-    <row r="3" spans="3:21" ht="38.25" thickBot="1">
+    <row r="2" spans="3:22" ht="19.5" thickBot="1"/>
+    <row r="3" spans="3:22" ht="38.25" thickBot="1">
       <c r="C3" s="17" t="s">
         <v>53</v>
       </c>
@@ -1024,37 +1382,40 @@
         <v>15</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:21">
+    <row r="4" spans="3:22">
       <c r="C4" s="15">
         <v>1</v>
       </c>
@@ -1076,7 +1437,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1085,11 +1448,12 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="3:21">
+    <row r="5" spans="3:22">
       <c r="C5" s="16">
         <v>2</v>
       </c>
@@ -1111,7 +1475,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1120,11 +1486,12 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="1"/>
+      <c r="V5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="3:21">
+    <row r="6" spans="3:22">
       <c r="C6" s="15">
         <v>3</v>
       </c>
@@ -1152,7 +1519,9 @@
       <c r="K6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1161,11 +1530,12 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="3:21">
+    <row r="7" spans="3:22">
       <c r="C7" s="16">
         <v>4</v>
       </c>
@@ -1187,7 +1557,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1196,11 +1568,12 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:21" ht="131.25">
+    <row r="8" spans="3:22" ht="131.25">
       <c r="C8" s="15">
         <v>5</v>
       </c>
@@ -1228,7 +1601,9 @@
       <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1237,11 +1612,12 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="1"/>
+      <c r="V8" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="3:21" ht="37.5">
+    <row r="9" spans="3:22" ht="37.5">
       <c r="C9" s="15">
         <v>6</v>
       </c>
@@ -1254,7 +1630,9 @@
       <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
@@ -1263,7 +1641,9 @@
       <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1273,8 +1653,11 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="10" spans="3:21">
+    <row r="10" spans="3:22">
       <c r="C10" s="16">
         <v>7</v>
       </c>
@@ -1287,12 +1670,20 @@
       <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1302,20 +1693,37 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
+      <c r="V10" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="3:21">
+    <row r="11" spans="3:22">
       <c r="C11" s="16">
         <v>8</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1325,18 +1733,39 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
+      <c r="V11" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="12" spans="3:21">
-      <c r="C12" s="1"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+    <row r="12" spans="3:22" ht="23.25" customHeight="1">
+      <c r="C12" s="16">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1346,13 +1775,26 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
+      <c r="V12" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="13" spans="3:21">
-      <c r="C13" s="1"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+    <row r="13" spans="3:22">
+      <c r="C13" s="18">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1367,12 +1809,112 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="3:22">
+      <c r="C14" s="18">
+        <v>11</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="3:22">
+      <c r="C15" s="18">
+        <v>12</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="3:22">
+      <c r="C16" s="18">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{5D616F96-7F33-41C0-92CB-6CE7282086A7}"/>
     <hyperlink ref="F8" r:id="rId2" display="https://github.com/sakuriver/SFSimulator_x000a_https://40132628.hubspotpagebuilder.com/%E4%BB%8A%E3%81%BE%E3%81%A7%E3%81%AE%E6%AD%A9%E3%81%BF-%E5%95%86%E6%A5%AD-%E4%BA%8B%E6%A5%AD%E9%96%A2%E4%BF%82%E7%B7%A8/ec%E5%8F%8A%E3%81%B3%E8%B2%A9%E5%A3%B2-%E5%95%86%E5%93%81%E7%AE%A1%E7%90%86%E7%89%B9%E9%9B%86?fbclid=IwAR3wdPFjWPO9ZWE5wJBaSX24obuugzJKLAnkhla54E6UpxSZwY3SOOL1cFk" xr:uid="{23064079-E0D6-40A6-87D8-9AD0C2DAA574}"/>
+    <hyperlink ref="V12" r:id="rId3" location="vlog" xr:uid="{6555FE89-3DAA-48B5-9B09-028E4AC98853}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
